--- a/bus_202/data/group_2_2.xlsx
+++ b/bus_202/data/group_2_2.xlsx
@@ -1,43 +1,397 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgrah\Box\Justin\Teaching\2025 Winter BUS 202\Group Project\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{72567E7B-EB5F-450D-9692-1EC1C7BF5BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{774B4A27-2408-4AC4-9534-D67CABC8234A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bus_202_Data_Analysis_Project(S" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="16">
+  <si>
+    <t>At Bat</t>
+  </si>
+  <si>
+    <t>Yankees</t>
+  </si>
+  <si>
+    <t>New Bat</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Avg. MPH</t>
+  </si>
+  <si>
+    <t>Opponent Win Percentage(Last Year)</t>
+  </si>
+  <si>
+    <t>Pitcher ERA (Last Year)</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>Strikeout</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>Anthony Volpe</t>
+  </si>
+  <si>
+    <t>Austin Wells</t>
+  </si>
+  <si>
+    <t>Dansby Swanson</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +399,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -79,39 +622,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -144,9 +687,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -179,6 +739,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -240,13 +817,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -255,6 +825,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,24 +896,3778 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3884792C-F486-4A0D-9682-91796791FAC5}">
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>89.166600000000003</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>2.9</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>21</v>
+      </c>
+      <c r="G3">
+        <v>84.5</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>2.9</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>88.6</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>3.18</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>88.25</v>
+      </c>
+      <c r="H5">
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <v>3.73</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2023</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>85</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>4.42</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>89.44444</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>4.42</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2023</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>94</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>2.54</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>81.5</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>3.02</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>83.333332999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <v>3.02</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>92</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>5.76</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2024</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="G12">
+        <v>90.25</v>
+      </c>
+      <c r="H12">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I12">
+        <v>3.45</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2024</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>93.75</v>
+      </c>
+      <c r="H13">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I13">
+        <v>3.45</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>2024</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <v>86.5</v>
+      </c>
+      <c r="H14">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I14">
+        <v>5.23</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>2024</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+      <c r="G15">
+        <v>86.75</v>
+      </c>
+      <c r="H15">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I15">
+        <v>3.59</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>22</v>
+      </c>
+      <c r="G16">
+        <v>92.2</v>
+      </c>
+      <c r="H16">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I16">
+        <v>1.28</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>2024</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>83</v>
+      </c>
+      <c r="H17">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>2024</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <v>84.5</v>
+      </c>
+      <c r="H18">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I18">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>2024</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>90.125</v>
+      </c>
+      <c r="H19">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I19">
+        <v>5.76</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>2024</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>22</v>
+      </c>
+      <c r="G20">
+        <v>86.2</v>
+      </c>
+      <c r="H20">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I20">
+        <v>5.7</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>2024</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>92.75</v>
+      </c>
+      <c r="H21">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I21">
+        <v>3.82</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>2025</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>23</v>
+      </c>
+      <c r="G22">
+        <v>85.332999999999998</v>
+      </c>
+      <c r="H22">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I22">
+        <v>3.69</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>2025</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>23</v>
+      </c>
+      <c r="G23">
+        <v>88.166700000000006</v>
+      </c>
+      <c r="H23">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I23">
+        <v>3.69</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>2025</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>87.777799999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I24">
+        <v>1.74</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>2025</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>85.5</v>
+      </c>
+      <c r="H25">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I25">
+        <v>5.12</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>2025</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>85.6</v>
+      </c>
+      <c r="H26">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I26">
+        <v>3.77</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>2025</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>23</v>
+      </c>
+      <c r="G27">
+        <v>89</v>
+      </c>
+      <c r="H27">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I27">
+        <v>3.77</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>2025</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>23</v>
+      </c>
+      <c r="G28">
+        <v>92.75</v>
+      </c>
+      <c r="H28">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I28">
+        <v>2.99</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>2025</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+      <c r="G29">
+        <v>90.75</v>
+      </c>
+      <c r="H29">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I29">
+        <v>2.9</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>2025</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>23</v>
+      </c>
+      <c r="G30">
+        <v>69.166669999999996</v>
+      </c>
+      <c r="H30">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I30">
+        <v>4.5</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>2025</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>88.75</v>
+      </c>
+      <c r="H31">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I31">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>2023</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>23</v>
+      </c>
+      <c r="G32">
+        <v>86.42</v>
+      </c>
+      <c r="H32">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I32">
+        <v>1.75</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>2023</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>23</v>
+      </c>
+      <c r="G33">
+        <v>82.5</v>
+      </c>
+      <c r="H33">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I33">
+        <v>1.75</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>2023</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>23</v>
+      </c>
+      <c r="G34">
+        <v>87.25</v>
+      </c>
+      <c r="H34">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I34">
+        <v>1.75</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>2023</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>23</v>
+      </c>
+      <c r="G35">
+        <v>93.8</v>
+      </c>
+      <c r="H35">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I35">
+        <v>6.36</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>2023</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>23</v>
+      </c>
+      <c r="G36">
+        <v>84.4</v>
+      </c>
+      <c r="H36">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I36">
+        <v>0.9</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>2023</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>23</v>
+      </c>
+      <c r="G37">
+        <v>87</v>
+      </c>
+      <c r="H37">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I37">
+        <v>0.9</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38">
+        <v>2023</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>23</v>
+      </c>
+      <c r="G38">
+        <v>76</v>
+      </c>
+      <c r="H38">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I38">
+        <v>0.9</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>2023</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>23</v>
+      </c>
+      <c r="G39">
+        <v>88</v>
+      </c>
+      <c r="H39">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I39">
+        <v>3.73</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>2023</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>23</v>
+      </c>
+      <c r="G40">
+        <v>82</v>
+      </c>
+      <c r="H40">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I40">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>2023</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>23</v>
+      </c>
+      <c r="G41">
+        <v>78.75</v>
+      </c>
+      <c r="H41">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="I41">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>2024</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>24</v>
+      </c>
+      <c r="G42">
+        <v>87.167000000000002</v>
+      </c>
+      <c r="H42">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I42">
+        <v>3.5</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>2024</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>24</v>
+      </c>
+      <c r="G43">
+        <v>85.67</v>
+      </c>
+      <c r="H43">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I43">
+        <v>3.5</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>2024</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>24</v>
+      </c>
+      <c r="G44">
+        <v>83.3</v>
+      </c>
+      <c r="H44">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I44">
+        <v>3.5</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>2024</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>24</v>
+      </c>
+      <c r="G45">
+        <v>89.5</v>
+      </c>
+      <c r="H45">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>2024</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>24</v>
+      </c>
+      <c r="G46">
+        <v>93.7</v>
+      </c>
+      <c r="H46">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I46">
+        <v>5.61</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>2024</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>24</v>
+      </c>
+      <c r="G47">
+        <v>97</v>
+      </c>
+      <c r="H47">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I47">
+        <v>5.61</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>2024</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>24</v>
+      </c>
+      <c r="G48">
+        <v>86.3</v>
+      </c>
+      <c r="H48">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I48">
+        <v>5.61</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>2024</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>24</v>
+      </c>
+      <c r="G49">
+        <v>89.27</v>
+      </c>
+      <c r="H49">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>24</v>
+      </c>
+      <c r="G50">
+        <v>84</v>
+      </c>
+      <c r="H50">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>2024</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>24</v>
+      </c>
+      <c r="G51">
+        <v>93.4</v>
+      </c>
+      <c r="H51">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="I51">
+        <v>3.06</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>2025</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <v>93.67</v>
+      </c>
+      <c r="H52">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I52">
+        <v>3.69</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>25</v>
+      </c>
+      <c r="G53">
+        <v>87</v>
+      </c>
+      <c r="H53">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I53">
+        <v>3.69</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>25</v>
+      </c>
+      <c r="G54">
+        <v>90.4</v>
+      </c>
+      <c r="H54">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I54">
+        <v>3.69</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>2025</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>25</v>
+      </c>
+      <c r="G55">
+        <v>93.83</v>
+      </c>
+      <c r="H55">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I55">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <v>2025</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>25</v>
+      </c>
+      <c r="G56">
+        <v>88.33</v>
+      </c>
+      <c r="H56">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I56">
+        <v>3.77</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>2025</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>25</v>
+      </c>
+      <c r="G57">
+        <v>83.2</v>
+      </c>
+      <c r="H57">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I57">
+        <v>3.77</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58">
+        <v>2025</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>25</v>
+      </c>
+      <c r="G58">
+        <v>92.25</v>
+      </c>
+      <c r="H58">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I58">
+        <v>2.99</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>2025</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>25</v>
+      </c>
+      <c r="G59">
+        <v>85.6</v>
+      </c>
+      <c r="H59">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I59">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60">
+        <v>2025</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>25</v>
+      </c>
+      <c r="G60">
+        <v>86.29</v>
+      </c>
+      <c r="H60">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I60">
+        <v>5.12</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61">
+        <v>2025</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>25</v>
+      </c>
+      <c r="G61">
+        <v>94</v>
+      </c>
+      <c r="H61">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="I61">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <v>2023</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>29</v>
+      </c>
+      <c r="G62">
+        <v>90</v>
+      </c>
+      <c r="H62">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="I62">
+        <v>3.4</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>2023</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>29</v>
+      </c>
+      <c r="G63">
+        <v>92</v>
+      </c>
+      <c r="H63">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="I63">
+        <v>3.4</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>2023</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>29</v>
+      </c>
+      <c r="G64">
+        <v>83</v>
+      </c>
+      <c r="H64">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="I64">
+        <v>3.4</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65">
+        <v>2023</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>29</v>
+      </c>
+      <c r="G65">
+        <v>87</v>
+      </c>
+      <c r="H65">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="I65">
+        <v>6.9</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>2023</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>29</v>
+      </c>
+      <c r="G66">
+        <v>96</v>
+      </c>
+      <c r="H66">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="I66">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>2023</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>29</v>
+      </c>
+      <c r="G67">
+        <v>92</v>
+      </c>
+      <c r="H67">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="I67">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>2023</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>29</v>
+      </c>
+      <c r="G68">
+        <v>93</v>
+      </c>
+      <c r="H68">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="I68">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>2023</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>29</v>
+      </c>
+      <c r="G69">
+        <v>91</v>
+      </c>
+      <c r="H69">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="I69">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>2023</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>29</v>
+      </c>
+      <c r="G70">
+        <v>89</v>
+      </c>
+      <c r="H70">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="I70">
+        <v>6.62</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>2023</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>29</v>
+      </c>
+      <c r="G71">
+        <v>86</v>
+      </c>
+      <c r="H71">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="I71">
+        <v>6.62</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>2024</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>30</v>
+      </c>
+      <c r="G72">
+        <v>92</v>
+      </c>
+      <c r="H72">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I72">
+        <v>3.81</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>2024</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>30</v>
+      </c>
+      <c r="G73">
+        <v>93</v>
+      </c>
+      <c r="H73">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I73">
+        <v>3.81</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>2024</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>30</v>
+      </c>
+      <c r="G74">
+        <v>88</v>
+      </c>
+      <c r="H74">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I74">
+        <v>3.91</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>2024</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>30</v>
+      </c>
+      <c r="G75">
+        <v>90</v>
+      </c>
+      <c r="H75">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I75">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>2024</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>30</v>
+      </c>
+      <c r="G76">
+        <v>85.2</v>
+      </c>
+      <c r="H76">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I76">
+        <v>3.55</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>2024</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>30</v>
+      </c>
+      <c r="G77">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H77">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I77">
+        <v>3.55</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>2024</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>30</v>
+      </c>
+      <c r="G78">
+        <v>83</v>
+      </c>
+      <c r="H78">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>2024</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
+      </c>
+      <c r="G79">
+        <v>92.3</v>
+      </c>
+      <c r="H79">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I79">
+        <v>4.49</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>2024</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>30</v>
+      </c>
+      <c r="G80">
+        <v>92.4</v>
+      </c>
+      <c r="H80">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I80">
+        <v>4.49</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>2024</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>30</v>
+      </c>
+      <c r="G81">
+        <v>89.1</v>
+      </c>
+      <c r="H81">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I81">
+        <v>3.8</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>2025</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>31</v>
+      </c>
+      <c r="G82">
+        <v>84.3</v>
+      </c>
+      <c r="H82">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83">
+        <v>2025</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>31</v>
+      </c>
+      <c r="G83">
+        <v>94.3</v>
+      </c>
+      <c r="H83">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>2025</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>31</v>
+      </c>
+      <c r="G84">
+        <v>95.2</v>
+      </c>
+      <c r="H84">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I84">
+        <v>2.16</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85">
+        <v>2025</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>31</v>
+      </c>
+      <c r="G85">
+        <v>92.2</v>
+      </c>
+      <c r="H85">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I85">
+        <v>2.35</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86">
+        <v>2025</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>31</v>
+      </c>
+      <c r="G86">
+        <v>88.25</v>
+      </c>
+      <c r="H86">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I86">
+        <v>4.22</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87">
+        <v>2025</v>
+      </c>
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>31</v>
+      </c>
+      <c r="G87">
+        <v>90.25</v>
+      </c>
+      <c r="H87">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I87">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88">
+        <v>2025</v>
+      </c>
+      <c r="C88">
+        <v>87</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>31</v>
+      </c>
+      <c r="G88">
+        <v>90.2</v>
+      </c>
+      <c r="H88">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="I88">
+        <v>1.17</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89">
+        <v>2025</v>
+      </c>
+      <c r="C89">
+        <v>88</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>31</v>
+      </c>
+      <c r="G89">
+        <v>88.2</v>
+      </c>
+      <c r="H89">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I89">
+        <v>3.65</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90">
+        <v>2025</v>
+      </c>
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>31</v>
+      </c>
+      <c r="G90">
+        <v>92</v>
+      </c>
+      <c r="H90">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I90">
+        <v>3.65</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91">
+        <v>2025</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>31</v>
+      </c>
+      <c r="G91">
+        <v>93.5</v>
+      </c>
+      <c r="H91">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I91">
+        <v>4.24</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>